--- a/output/5Y_P27_KFSDIV.xlsx
+++ b/output/5Y_P27_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5636</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-22</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.1788</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-21</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.5668</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.962</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-19</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.2659</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-18</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.4103</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-17</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.3976</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.9013</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-15</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.3527</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-14</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8804</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6268</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3636</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8711</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-10</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.1252</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.1934</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-8</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.1176</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-7</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.3311</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-6</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.3637</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-5</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6447</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-4</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.486</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.1958</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.4264</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>17.107</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.8894</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.4004</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3877</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6367</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.0061</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.835</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.4216</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.2404</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.382</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>11.9583</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.2036</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.9136</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.4338</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.9657</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.3568</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.2487</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.3991</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.5985</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.6955</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.3398</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.8469</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.129</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.716</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.4613</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.6545</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.2345</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.1636</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>11.8145</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>11.2352</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>10.8241</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>11.2543</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.5675</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>9.967000000000001</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.0064</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.0129</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.4583</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.3341</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>9.884600000000001</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5636</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-22</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.1788</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-21</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.5668</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.962</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-19</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.2659</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-18</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.4103</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-17</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.3976</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.9013</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-15</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.3527</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-14</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8804</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6268</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3636</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8711</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-10</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.1252</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.1934</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-8</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.1176</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-7</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.3311</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-6</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.3637</v>
@@ -5303,10 +5306,10 @@
         <v>204579.3949</v>
       </c>
       <c r="K19" s="1">
-        <v>150090.4449</v>
+        <v>150105.5022</v>
       </c>
       <c r="L19" s="1">
-        <v>13.5085</v>
+        <v>13.5098</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-5</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6447</v>
@@ -5356,10 +5359,10 @@
         <v>206116.555</v>
       </c>
       <c r="K20" s="1">
-        <v>159766.8889</v>
+        <v>159781.9462</v>
       </c>
       <c r="L20" s="1">
-        <v>13.6095</v>
+        <v>13.6108</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-4</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.486</v>
@@ -5409,10 +5412,10 @@
         <v>237522.9194</v>
       </c>
       <c r="K21" s="1">
-        <v>178264.9432</v>
+        <v>178280.0006</v>
       </c>
       <c r="L21" s="1">
-        <v>13.7127</v>
+        <v>13.7139</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.1958</v>
@@ -5462,10 +5465,10 @@
         <v>256690.1792</v>
       </c>
       <c r="K22" s="1">
-        <v>177346.4849</v>
+        <v>177365.2121</v>
       </c>
       <c r="L22" s="1">
-        <v>13.7044</v>
+        <v>13.7059</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.4264</v>
@@ -5515,10 +5518,10 @@
         <v>269677.6719</v>
       </c>
       <c r="K23" s="1">
-        <v>178182.5636</v>
+        <v>178201.2908</v>
       </c>
       <c r="L23" s="1">
-        <v>13.7145</v>
+        <v>13.7159</v>
       </c>
       <c r="M23" s="1">
         <v>0.75</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>17.107</v>
@@ -5568,10 +5571,10 @@
         <v>297534.1713</v>
       </c>
       <c r="K24" s="1">
-        <v>185219.8228</v>
+        <v>185238.55</v>
       </c>
       <c r="L24" s="1">
-        <v>13.8019</v>
+        <v>13.8033</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.8894</v>
@@ -5621,10 +5624,10 @@
         <v>304604.5617</v>
       </c>
       <c r="K25" s="1">
-        <v>186108.5981</v>
+        <v>186127.3252</v>
       </c>
       <c r="L25" s="1">
-        <v>13.8148</v>
+        <v>13.8162</v>
       </c>
       <c r="M25" s="1">
         <v>1</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.4004</v>
@@ -5674,10 +5677,10 @@
         <v>319728.8377</v>
       </c>
       <c r="K26" s="1">
-        <v>199086.4963</v>
+        <v>199105.2235</v>
       </c>
       <c r="L26" s="1">
-        <v>13.9822</v>
+        <v>13.9835</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3877</v>
@@ -5727,10 +5730,10 @@
         <v>314223.2955</v>
       </c>
       <c r="K27" s="1">
-        <v>216102.9603</v>
+        <v>216121.6875</v>
       </c>
       <c r="L27" s="1">
-        <v>14.1483</v>
+        <v>14.1496</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6367</v>
@@ -5780,10 +5783,10 @@
         <v>311431.85</v>
       </c>
       <c r="K28" s="1">
-        <v>241642.5066</v>
+        <v>241661.2338</v>
       </c>
       <c r="L28" s="1">
-        <v>14.2726</v>
+        <v>14.2737</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.0061</v>
@@ -5833,10 +5836,10 @@
         <v>291262.1689</v>
       </c>
       <c r="K29" s="1">
-        <v>264422.9389</v>
+        <v>264441.6661</v>
       </c>
       <c r="L29" s="1">
-        <v>14.3057</v>
+        <v>14.3067</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.835</v>
@@ -5886,10 +5889,10 @@
         <v>327262.932</v>
       </c>
       <c r="K30" s="1">
-        <v>304662.4669</v>
+        <v>304681.1941</v>
       </c>
       <c r="L30" s="1">
-        <v>14.1234</v>
+        <v>14.1243</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.4216</v>
@@ -5939,10 +5942,10 @@
         <v>349560.4123</v>
       </c>
       <c r="K31" s="1">
-        <v>296787.0638</v>
+        <v>296837.2638</v>
       </c>
       <c r="L31" s="1">
-        <v>14.1304</v>
+        <v>14.1328</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.2404</v>
@@ -5992,10 +5995,10 @@
         <v>334987.7093</v>
       </c>
       <c r="K32" s="1">
-        <v>294480.373</v>
+        <v>294539.7834</v>
       </c>
       <c r="L32" s="1">
-        <v>14.128</v>
+        <v>14.1308</v>
       </c>
       <c r="M32" s="1">
         <v>0.4</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.382</v>
@@ -6045,10 +6048,10 @@
         <v>332254.487</v>
       </c>
       <c r="K33" s="1">
-        <v>329191.7446</v>
+        <v>329251.1551</v>
       </c>
       <c r="L33" s="1">
-        <v>14.032</v>
+        <v>14.0345</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>11.9583</v>
@@ -6098,10 +6101,10 @@
         <v>331184.9182</v>
       </c>
       <c r="K34" s="1">
-        <v>359410.8604</v>
+        <v>359470.2709</v>
       </c>
       <c r="L34" s="1">
-        <v>13.8791</v>
+        <v>13.8814</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.2036</v>
@@ -6151,10 +6154,10 @@
         <v>347869.8419</v>
       </c>
       <c r="K35" s="1">
-        <v>380443.6992</v>
+        <v>380503.1096</v>
       </c>
       <c r="L35" s="1">
-        <v>13.7587</v>
+        <v>13.7608</v>
       </c>
       <c r="M35" s="1">
         <v>0.4</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.9136</v>
@@ -6204,10 +6207,10 @@
         <v>387592.8817</v>
       </c>
       <c r="K36" s="1">
-        <v>383687.6678</v>
+        <v>383747.0783</v>
       </c>
       <c r="L36" s="1">
-        <v>13.7441</v>
+        <v>13.7463</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.4338</v>
@@ -6257,10 +6260,10 @@
         <v>411690.3227</v>
       </c>
       <c r="K37" s="1">
-        <v>373866.8337</v>
+        <v>373965.4834</v>
       </c>
       <c r="L37" s="1">
-        <v>13.7666</v>
+        <v>13.7703</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.9657</v>
@@ -6310,10 +6313,10 @@
         <v>409147.8259</v>
       </c>
       <c r="K38" s="1">
-        <v>369752.9502</v>
+        <v>369868.0424</v>
       </c>
       <c r="L38" s="1">
-        <v>13.7701</v>
+        <v>13.7744</v>
       </c>
       <c r="M38" s="1">
         <v>0.3</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.3568</v>
@@ -6363,10 +6366,10 @@
         <v>437467.6276</v>
       </c>
       <c r="K39" s="1">
-        <v>392385.8623</v>
+        <v>392500.9545</v>
       </c>
       <c r="L39" s="1">
-        <v>13.7227</v>
+        <v>13.7267</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.2487</v>
@@ -6416,10 +6419,10 @@
         <v>444391.7317</v>
       </c>
       <c r="K40" s="1">
-        <v>391220.9869</v>
+        <v>391340.7356</v>
       </c>
       <c r="L40" s="1">
-        <v>13.7237</v>
+        <v>13.7279</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.3991</v>
@@ -6469,10 +6472,10 @@
         <v>458766.6449</v>
       </c>
       <c r="K41" s="1">
-        <v>404349.2964</v>
+        <v>404469.0451</v>
       </c>
       <c r="L41" s="1">
-        <v>13.7087</v>
+        <v>13.7127</v>
       </c>
       <c r="M41" s="1">
         <v>0.4</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.5985</v>
@@ -6522,10 +6525,10 @@
         <v>485315.4168</v>
       </c>
       <c r="K42" s="1">
-        <v>409944.3065</v>
+        <v>410064.0552</v>
       </c>
       <c r="L42" s="1">
-        <v>13.7047</v>
+        <v>13.7087</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.6955</v>
@@ -6575,10 +6578,10 @@
         <v>498223.5997</v>
       </c>
       <c r="K43" s="1">
-        <v>414007.9268</v>
+        <v>414127.6755</v>
       </c>
       <c r="L43" s="1">
-        <v>13.704</v>
+        <v>13.7079</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.3398</v>
@@ -6628,10 +6631,10 @@
         <v>497286.6192</v>
       </c>
       <c r="K44" s="1">
-        <v>421111.8886</v>
+        <v>421231.6373</v>
       </c>
       <c r="L44" s="1">
-        <v>13.7043</v>
+        <v>13.7082</v>
       </c>
       <c r="M44" s="1">
         <v>0.3</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.8469</v>
@@ -6681,10 +6684,10 @@
         <v>499611.5589</v>
       </c>
       <c r="K45" s="1">
-        <v>442104.3668</v>
+        <v>442224.1155</v>
       </c>
       <c r="L45" s="1">
-        <v>13.6879</v>
+        <v>13.6916</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.129</v>
@@ -6734,10 +6737,10 @@
         <v>519168.337</v>
       </c>
       <c r="K46" s="1">
-        <v>468096.0359</v>
+        <v>468215.7846</v>
       </c>
       <c r="L46" s="1">
-        <v>13.6399</v>
+        <v>13.6434</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.716</v>
@@ -6787,10 +6790,10 @@
         <v>515013.7845</v>
       </c>
       <c r="K47" s="1">
-        <v>468436.8363</v>
+        <v>468556.585</v>
       </c>
       <c r="L47" s="1">
-        <v>13.6395</v>
+        <v>13.643</v>
       </c>
       <c r="M47" s="1">
         <v>0.3</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.4613</v>
@@ -6840,10 +6843,10 @@
         <v>524975.7439</v>
       </c>
       <c r="K48" s="1">
-        <v>492686.9008</v>
+        <v>492806.6495</v>
       </c>
       <c r="L48" s="1">
-        <v>13.5924</v>
+        <v>13.5957</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.6545</v>
@@ -6893,10 +6896,10 @@
         <v>542185.002</v>
       </c>
       <c r="K49" s="1">
-        <v>511978.0595</v>
+        <v>512097.8082</v>
       </c>
       <c r="L49" s="1">
-        <v>13.5472</v>
+        <v>13.5503</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.2345</v>
@@ -6946,10 +6949,10 @@
         <v>536241.5074</v>
       </c>
       <c r="K50" s="1">
-        <v>514702.6005</v>
+        <v>514822.3492</v>
       </c>
       <c r="L50" s="1">
-        <v>13.5423</v>
+        <v>13.5454</v>
       </c>
       <c r="M50" s="1">
         <v>0.3</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.1636</v>
@@ -6999,10 +7002,10 @@
         <v>553562.1053000001</v>
       </c>
       <c r="K51" s="1">
-        <v>540739.2714</v>
+        <v>540859.0201</v>
       </c>
       <c r="L51" s="1">
-        <v>13.4743</v>
+        <v>13.4773</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>11.8145</v>
@@ -7052,10 +7055,10 @@
         <v>549160.5192</v>
       </c>
       <c r="K52" s="1">
-        <v>553628.036</v>
+        <v>553747.7847</v>
       </c>
       <c r="L52" s="1">
-        <v>13.4413</v>
+        <v>13.4442</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>11.2352</v>
@@ -7105,10 +7108,10 @@
         <v>534053.5503</v>
       </c>
       <c r="K53" s="1">
-        <v>578075.8041</v>
+        <v>578195.5527999999</v>
       </c>
       <c r="L53" s="1">
-        <v>13.3648</v>
+        <v>13.3675</v>
       </c>
       <c r="M53" s="1">
         <v>0.3</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>10.8241</v>
@@ -7158,10 +7161,10 @@
         <v>536563.4788</v>
       </c>
       <c r="K54" s="1">
-        <v>613225.5939</v>
+        <v>613345.3426</v>
       </c>
       <c r="L54" s="1">
-        <v>13.2229</v>
+        <v>13.2255</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>11.2543</v>
@@ -7211,10 +7214,10 @@
         <v>567514.5806</v>
       </c>
       <c r="K55" s="1">
-        <v>642370.2842</v>
+        <v>642490.0329</v>
       </c>
       <c r="L55" s="1">
-        <v>13.0927</v>
+        <v>13.0952</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.5675</v>
@@ -7264,10 +7267,10 @@
         <v>544562.0707</v>
       </c>
       <c r="K56" s="1">
-        <v>631258.1173</v>
+        <v>631422.3072</v>
       </c>
       <c r="L56" s="1">
-        <v>13.1299</v>
+        <v>13.1334</v>
       </c>
       <c r="M56" s="1">
         <v>0.3</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>9.967000000000001</v>
@@ -7317,10 +7320,10 @@
         <v>536117.0024</v>
       </c>
       <c r="K57" s="1">
-        <v>674382.9031</v>
+        <v>674547.093</v>
       </c>
       <c r="L57" s="1">
-        <v>12.9315</v>
+        <v>12.9346</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.0064</v>
@@ -7370,10 +7373,10 @@
         <v>548164.8725000001</v>
       </c>
       <c r="K58" s="1">
-        <v>701753.6983</v>
+        <v>701917.8881</v>
       </c>
       <c r="L58" s="1">
-        <v>12.7845</v>
+        <v>12.7875</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.0129</v>
@@ -7423,10 +7426,10 @@
         <v>558488.1537</v>
       </c>
       <c r="K59" s="1">
-        <v>711753.6983</v>
+        <v>711917.8881</v>
       </c>
       <c r="L59" s="1">
-        <v>12.7352</v>
+        <v>12.7382</v>
       </c>
       <c r="M59" s="1">
         <v>0.3</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.4583</v>
@@ -7476,10 +7479,10 @@
         <v>608823.5541</v>
       </c>
       <c r="K60" s="1">
-        <v>721753.6983</v>
+        <v>721917.8881</v>
       </c>
       <c r="L60" s="1">
-        <v>12.6879</v>
+        <v>12.6908</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.3341</v>
@@ -7529,10 +7532,10 @@
         <v>611814.1457</v>
       </c>
       <c r="K61" s="1">
-        <v>718005.0497</v>
+        <v>718184.228</v>
       </c>
       <c r="L61" s="1">
-        <v>12.7019</v>
+        <v>12.705</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>9.884600000000001</v>
@@ -7582,10 +7585,10 @@
         <v>595647.7806000001</v>
       </c>
       <c r="K62" s="1">
-        <v>735082.7372</v>
+        <v>735261.9155</v>
       </c>
       <c r="L62" s="1">
-        <v>12.6353</v>
+        <v>12.6384</v>
       </c>
       <c r="M62" s="1">
         <v>0.5</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5636</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-22</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.1788</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-21</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.5668</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.962</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-19</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.2659</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-18</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.4103</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-17</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.3976</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.9013</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-15</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.3527</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-14</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8804</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6268</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3636</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8711</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-10</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.1252</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.1934</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-8</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.1176</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-7</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.3311</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-6</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.3637</v>
@@ -8615,10 +8618,10 @@
         <v>205512.0206</v>
       </c>
       <c r="K19" s="1">
-        <v>156480.5868</v>
+        <v>156494.4291</v>
       </c>
       <c r="L19" s="1">
-        <v>13.5287</v>
+        <v>13.5299</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-5</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6447</v>
@@ -8668,10 +8671,10 @@
         <v>206677.9345</v>
       </c>
       <c r="K20" s="1">
-        <v>167030.5283</v>
+        <v>167044.3706</v>
       </c>
       <c r="L20" s="1">
-        <v>13.6331</v>
+        <v>13.6342</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-4</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.486</v>
@@ -8721,10 +8724,10 @@
         <v>239045.656</v>
       </c>
       <c r="K21" s="1">
-        <v>186840.8693</v>
+        <v>186854.7117</v>
       </c>
       <c r="L21" s="1">
-        <v>13.7364</v>
+        <v>13.7374</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.1958</v>
@@ -8774,10 +8777,10 @@
         <v>258661.7061</v>
       </c>
       <c r="K22" s="1">
-        <v>186412.9926</v>
+        <v>186428.5446</v>
       </c>
       <c r="L22" s="1">
-        <v>13.7328</v>
+        <v>13.7339</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.4264</v>
@@ -8827,10 +8830,10 @@
         <v>271801.1781</v>
       </c>
       <c r="K23" s="1">
-        <v>187851.6429</v>
+        <v>187867.1949</v>
       </c>
       <c r="L23" s="1">
-        <v>13.749</v>
+        <v>13.7501</v>
       </c>
       <c r="M23" s="1">
         <v>0.75</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>17.107</v>
@@ -8880,10 +8883,10 @@
         <v>300601.4273</v>
       </c>
       <c r="K24" s="1">
-        <v>195842.5238</v>
+        <v>195858.0758</v>
       </c>
       <c r="L24" s="1">
-        <v>13.842</v>
+        <v>13.8431</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.8894</v>
@@ -8933,10 +8936,10 @@
         <v>307502.4408</v>
       </c>
       <c r="K25" s="1">
-        <v>197398.8258</v>
+        <v>197414.3778</v>
       </c>
       <c r="L25" s="1">
-        <v>13.863</v>
+        <v>13.8641</v>
       </c>
       <c r="M25" s="1">
         <v>1</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.4004</v>
@@ -8986,10 +8989,10 @@
         <v>322897.3812</v>
       </c>
       <c r="K26" s="1">
-        <v>211764.497</v>
+        <v>211780.049</v>
       </c>
       <c r="L26" s="1">
-        <v>14.0352</v>
+        <v>14.0362</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3877</v>
@@ -9039,10 +9042,10 @@
         <v>316422.3165</v>
       </c>
       <c r="K27" s="1">
-        <v>230473.9041</v>
+        <v>230489.4561</v>
       </c>
       <c r="L27" s="1">
-        <v>14.2034</v>
+        <v>14.2044</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6367</v>
@@ -9092,10 +9095,10 @@
         <v>312795.9382</v>
       </c>
       <c r="K28" s="1">
-        <v>258313.3489</v>
+        <v>258328.9009</v>
       </c>
       <c r="L28" s="1">
-        <v>14.3251</v>
+        <v>14.326</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.0061</v>
@@ -9145,10 +9148,10 @@
         <v>290578.313</v>
       </c>
       <c r="K29" s="1">
-        <v>283312.9879</v>
+        <v>283328.5399</v>
       </c>
       <c r="L29" s="1">
-        <v>14.3545</v>
+        <v>14.3553</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.835</v>
@@ -9198,10 +9201,10 @@
         <v>328387.3047</v>
       </c>
       <c r="K30" s="1">
-        <v>327047.0819</v>
+        <v>327062.6339</v>
       </c>
       <c r="L30" s="1">
-        <v>14.1624</v>
+        <v>14.163</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.4216</v>
@@ -9251,10 +9254,10 @@
         <v>351585.6368</v>
       </c>
       <c r="K31" s="1">
-        <v>319413.0398</v>
+        <v>319459.1</v>
       </c>
       <c r="L31" s="1">
-        <v>14.1697</v>
+        <v>14.1717</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.2404</v>
@@ -9304,10 +9307,10 @@
         <v>335145.3948</v>
       </c>
       <c r="K32" s="1">
-        <v>317764.3443</v>
+        <v>317816.9876</v>
       </c>
       <c r="L32" s="1">
-        <v>14.1683</v>
+        <v>14.1706</v>
       </c>
       <c r="M32" s="1">
         <v>0.4</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.382</v>
@@ -9357,10 +9360,10 @@
         <v>331385.6479</v>
       </c>
       <c r="K33" s="1">
-        <v>355971.22</v>
+        <v>356023.8633</v>
       </c>
       <c r="L33" s="1">
-        <v>14.0657</v>
+        <v>14.0678</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>11.9583</v>
@@ -9410,10 +9413,10 @@
         <v>329594.5536</v>
       </c>
       <c r="K34" s="1">
-        <v>384623.8564</v>
+        <v>384676.4998</v>
       </c>
       <c r="L34" s="1">
-        <v>13.927</v>
+        <v>13.9289</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.2036</v>
@@ -9463,10 +9466,10 @@
         <v>346519.5666</v>
       </c>
       <c r="K35" s="1">
-        <v>394623.8564</v>
+        <v>394676.4998</v>
       </c>
       <c r="L35" s="1">
-        <v>13.8699</v>
+        <v>13.8718</v>
       </c>
       <c r="M35" s="1">
         <v>0.4</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.9136</v>
@@ -9516,10 +9519,10 @@
         <v>387462.6029</v>
       </c>
       <c r="K36" s="1">
-        <v>404623.8564</v>
+        <v>404676.4998</v>
       </c>
       <c r="L36" s="1">
-        <v>13.8241</v>
+        <v>13.8259</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.4338</v>
@@ -9569,10 +9572,10 @@
         <v>412809.9679</v>
       </c>
       <c r="K37" s="1">
-        <v>408874.6487</v>
+        <v>408927.2921</v>
       </c>
       <c r="L37" s="1">
-        <v>13.8142</v>
+        <v>13.816</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.9657</v>
@@ -9622,10 +9625,10 @@
         <v>409105.1632</v>
       </c>
       <c r="K38" s="1">
-        <v>405403.6958</v>
+        <v>405470.2119</v>
       </c>
       <c r="L38" s="1">
-        <v>13.8173</v>
+        <v>13.8196</v>
       </c>
       <c r="M38" s="1">
         <v>0.3</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.3568</v>
@@ -9675,10 +9678,10 @@
         <v>439149.8541</v>
       </c>
       <c r="K39" s="1">
-        <v>431178.2716</v>
+        <v>431244.7877</v>
       </c>
       <c r="L39" s="1">
-        <v>13.7651</v>
+        <v>13.7672</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.2487</v>
@@ -9728,10 +9731,10 @@
         <v>445771.5936</v>
       </c>
       <c r="K40" s="1">
-        <v>430978.3073</v>
+        <v>431045.6227</v>
       </c>
       <c r="L40" s="1">
-        <v>13.7652</v>
+        <v>13.7674</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.3991</v>
@@ -9781,10 +9784,10 @@
         <v>460584.6722</v>
       </c>
       <c r="K41" s="1">
-        <v>446505.3304</v>
+        <v>446572.6458</v>
       </c>
       <c r="L41" s="1">
-        <v>13.7476</v>
+        <v>13.7497</v>
       </c>
       <c r="M41" s="1">
         <v>0.4</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.5985</v>
@@ -9834,10 +9837,10 @@
         <v>488819.3962</v>
       </c>
       <c r="K42" s="1">
-        <v>453806.6168</v>
+        <v>453873.9322</v>
       </c>
       <c r="L42" s="1">
-        <v>13.7423</v>
+        <v>13.7443</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.6955</v>
@@ -9887,10 +9890,10 @@
         <v>502033.5961</v>
       </c>
       <c r="K43" s="1">
-        <v>459465.6498</v>
+        <v>459532.9653</v>
       </c>
       <c r="L43" s="1">
-        <v>13.7408</v>
+        <v>13.7429</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.3398</v>
@@ -9940,10 +9943,10 @@
         <v>499892.3197</v>
       </c>
       <c r="K44" s="1">
-        <v>468534.0517</v>
+        <v>468601.3671</v>
       </c>
       <c r="L44" s="1">
-        <v>13.7405</v>
+        <v>13.7425</v>
       </c>
       <c r="M44" s="1">
         <v>0.3</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.8469</v>
@@ -9993,10 +9996,10 @@
         <v>501324.9374</v>
       </c>
       <c r="K45" s="1">
-        <v>493067.4545</v>
+        <v>493134.7699</v>
       </c>
       <c r="L45" s="1">
-        <v>13.7214</v>
+        <v>13.7233</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.129</v>
@@ -10046,10 +10049,10 @@
         <v>521980.0432</v>
       </c>
       <c r="K46" s="1">
-        <v>523256.013</v>
+        <v>523323.3284</v>
       </c>
       <c r="L46" s="1">
-        <v>13.6694</v>
+        <v>13.6712</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.716</v>
@@ -10099,10 +10102,10 @@
         <v>516145.5848</v>
       </c>
       <c r="K47" s="1">
-        <v>524941.0409</v>
+        <v>525008.3563</v>
       </c>
       <c r="L47" s="1">
-        <v>13.6677</v>
+        <v>13.6694</v>
       </c>
       <c r="M47" s="1">
         <v>0.3</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.4613</v>
@@ -10152,10 +10155,10 @@
         <v>526070.9947</v>
       </c>
       <c r="K48" s="1">
-        <v>553398.6531</v>
+        <v>553465.9686</v>
       </c>
       <c r="L48" s="1">
-        <v>13.6168</v>
+        <v>13.6184</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.6545</v>
@@ -10205,10 +10208,10 @@
         <v>544169.8101999999</v>
       </c>
       <c r="K49" s="1">
-        <v>576400.2914</v>
+        <v>576467.6068</v>
       </c>
       <c r="L49" s="1">
-        <v>13.5678</v>
+        <v>13.5693</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.2345</v>
@@ -10258,10 +10261,10 @@
         <v>536195.2928000001</v>
       </c>
       <c r="K50" s="1">
-        <v>580869.1041</v>
+        <v>580936.4196</v>
       </c>
       <c r="L50" s="1">
-        <v>13.5605</v>
+        <v>13.562</v>
       </c>
       <c r="M50" s="1">
         <v>0.3</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.1636</v>
@@ -10311,10 +10314,10 @@
         <v>554506.1384000001</v>
       </c>
       <c r="K51" s="1">
-        <v>604042.7238</v>
+        <v>604110.0392</v>
       </c>
       <c r="L51" s="1">
-        <v>13.5054</v>
+        <v>13.507</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>11.8145</v>
@@ -10364,10 +10367,10 @@
         <v>548221.0177</v>
       </c>
       <c r="K52" s="1">
-        <v>625608.3136</v>
+        <v>625675.629</v>
       </c>
       <c r="L52" s="1">
-        <v>13.4553</v>
+        <v>13.4568</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>11.2352</v>
@@ -10417,10 +10420,10 @@
         <v>530809.0814</v>
       </c>
       <c r="K53" s="1">
-        <v>635608.3136</v>
+        <v>635675.629</v>
       </c>
       <c r="L53" s="1">
-        <v>13.4265</v>
+        <v>13.4279</v>
       </c>
       <c r="M53" s="1">
         <v>0.3</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>10.8241</v>
@@ -10470,10 +10473,10 @@
         <v>533762.8468000001</v>
       </c>
       <c r="K54" s="1">
-        <v>645608.3136</v>
+        <v>645675.629</v>
       </c>
       <c r="L54" s="1">
-        <v>13.3865</v>
+        <v>13.3879</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>11.2543</v>
@@ -10523,10 +10526,10 @@
         <v>565282.8652999999</v>
       </c>
       <c r="K55" s="1">
-        <v>668390.1102999999</v>
+        <v>668457.4258</v>
       </c>
       <c r="L55" s="1">
-        <v>13.2805</v>
+        <v>13.2818</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.5675</v>
@@ -10576,10 +10579,10 @@
         <v>540139.7306</v>
       </c>
       <c r="K56" s="1">
-        <v>678390.1102999999</v>
+        <v>678457.4258</v>
       </c>
       <c r="L56" s="1">
-        <v>13.2458</v>
+        <v>13.2471</v>
       </c>
       <c r="M56" s="1">
         <v>0.3</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>9.967000000000001</v>
@@ -10629,10 +10632,10 @@
         <v>532668.5193</v>
       </c>
       <c r="K57" s="1">
-        <v>688390.1102999999</v>
+        <v>688457.4258</v>
       </c>
       <c r="L57" s="1">
-        <v>13.1977</v>
+        <v>13.199</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.0064</v>
@@ -10682,10 +10685,10 @@
         <v>544716.9741</v>
       </c>
       <c r="K58" s="1">
-        <v>712218.3101999999</v>
+        <v>712285.6256</v>
       </c>
       <c r="L58" s="1">
-        <v>13.0572</v>
+        <v>13.0585</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.0129</v>
@@ -10735,10 +10738,10 @@
         <v>555038.0111</v>
       </c>
       <c r="K59" s="1">
-        <v>722218.3101999999</v>
+        <v>722285.6256</v>
       </c>
       <c r="L59" s="1">
-        <v>13.0028</v>
+        <v>13.004</v>
       </c>
       <c r="M59" s="1">
         <v>0.3</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.4583</v>
@@ -10788,10 +10791,10 @@
         <v>605126.7237</v>
       </c>
       <c r="K60" s="1">
-        <v>732218.3101999999</v>
+        <v>732285.6256</v>
       </c>
       <c r="L60" s="1">
-        <v>12.9505</v>
+        <v>12.9517</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.3341</v>
@@ -10841,10 +10844,10 @@
         <v>607720.0426</v>
       </c>
       <c r="K61" s="1">
-        <v>757214.9841</v>
+        <v>757282.2996</v>
       </c>
       <c r="L61" s="1">
-        <v>12.8504</v>
+        <v>12.8516</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>9.884600000000001</v>
@@ -10894,10 +10897,10 @@
         <v>590812.9489</v>
       </c>
       <c r="K62" s="1">
-        <v>767214.9841</v>
+        <v>767282.2996</v>
       </c>
       <c r="L62" s="1">
-        <v>12.8102</v>
+        <v>12.8113</v>
       </c>
       <c r="M62" s="1">
         <v>0.5</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5636</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-22</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.1788</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-21</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.5668</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.962</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-19</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.2659</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-18</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.4103</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-17</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.3976</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.9013</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-15</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.3527</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-14</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8804</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6268</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3636</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8711</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-10</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.1252</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.1934</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-8</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.1176</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-7</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.3311</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-6</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.3637</v>
@@ -11927,10 +11930,10 @@
         <v>206466.7524</v>
       </c>
       <c r="K19" s="1">
-        <v>163221.3585</v>
+        <v>163233.829</v>
       </c>
       <c r="L19" s="1">
-        <v>13.5501</v>
+        <v>13.5512</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-5</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6447</v>
@@ -11980,10 +11983,10 @@
         <v>207240.9241</v>
       </c>
       <c r="K20" s="1">
-        <v>174717.639</v>
+        <v>174730.1095</v>
       </c>
       <c r="L20" s="1">
-        <v>13.6578</v>
+        <v>13.6588</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-4</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.486</v>
@@ -12033,10 +12036,10 @@
         <v>240624.4926</v>
       </c>
       <c r="K21" s="1">
-        <v>195943.7809</v>
+        <v>195956.2514</v>
       </c>
       <c r="L21" s="1">
-        <v>13.761</v>
+        <v>13.7619</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.1958</v>
@@ -12086,10 +12089,10 @@
         <v>260716.6836</v>
       </c>
       <c r="K22" s="1">
-        <v>196070.296</v>
+        <v>196082.7665</v>
       </c>
       <c r="L22" s="1">
-        <v>13.7621</v>
+        <v>13.7629</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.4264</v>
@@ -12139,10 +12142,10 @@
         <v>274017.966</v>
       </c>
       <c r="K23" s="1">
-        <v>198187.9558</v>
+        <v>198200.4263</v>
       </c>
       <c r="L23" s="1">
-        <v>13.7844</v>
+        <v>13.7853</v>
       </c>
       <c r="M23" s="1">
         <v>0.75</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>17.107</v>
@@ -12192,10 +12195,10 @@
         <v>303825.5381</v>
       </c>
       <c r="K24" s="1">
-        <v>207238.2627</v>
+        <v>207250.7331</v>
       </c>
       <c r="L24" s="1">
-        <v>13.883</v>
+        <v>13.8838</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.8894</v>
@@ -12245,10 +12248,10 @@
         <v>310544.6508</v>
       </c>
       <c r="K25" s="1">
-        <v>209555.9086</v>
+        <v>209568.3791</v>
       </c>
       <c r="L25" s="1">
-        <v>13.9122</v>
+        <v>13.913</v>
       </c>
       <c r="M25" s="1">
         <v>1</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.4004</v>
@@ -12298,10 +12301,10 @@
         <v>326228.2658</v>
       </c>
       <c r="K26" s="1">
-        <v>225462.7043</v>
+        <v>225475.1747</v>
       </c>
       <c r="L26" s="1">
-        <v>14.0891</v>
+        <v>14.0898</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3877</v>
@@ -12351,10 +12354,10 @@
         <v>318705.7638</v>
       </c>
       <c r="K27" s="1">
-        <v>246051.6693</v>
+        <v>246064.1397</v>
       </c>
       <c r="L27" s="1">
-        <v>14.2593</v>
+        <v>14.26</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6367</v>
@@ -12404,10 +12407,10 @@
         <v>314174.2567</v>
       </c>
       <c r="K28" s="1">
-        <v>276437.5748</v>
+        <v>276450.0452</v>
       </c>
       <c r="L28" s="1">
-        <v>14.3781</v>
+        <v>14.3787</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.0061</v>
@@ -12457,10 +12460,10 @@
         <v>289729.2658</v>
       </c>
       <c r="K29" s="1">
-        <v>303910.0171</v>
+        <v>303922.4876</v>
       </c>
       <c r="L29" s="1">
-        <v>14.4037</v>
+        <v>14.4042</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.835</v>
@@ -12510,10 +12513,10 @@
         <v>328215.3328</v>
       </c>
       <c r="K30" s="1">
-        <v>329765.6258</v>
+        <v>329778.0963</v>
       </c>
       <c r="L30" s="1">
-        <v>14.2858</v>
+        <v>14.2863</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.4216</v>
@@ -12563,10 +12566,10 @@
         <v>352336.6761</v>
       </c>
       <c r="K31" s="1">
-        <v>345612.2744</v>
+        <v>345624.7448</v>
       </c>
       <c r="L31" s="1">
-        <v>14.2658</v>
+        <v>14.2663</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.2404</v>
@@ -12616,10 +12619,10 @@
         <v>333844.7158</v>
       </c>
       <c r="K32" s="1">
-        <v>344769.2752</v>
+        <v>344785.1118</v>
       </c>
       <c r="L32" s="1">
-        <v>14.2654</v>
+        <v>14.266</v>
       </c>
       <c r="M32" s="1">
         <v>0.4</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.382</v>
@@ -12669,10 +12672,10 @@
         <v>330161.2368</v>
       </c>
       <c r="K33" s="1">
-        <v>369257.036</v>
+        <v>369272.8725</v>
       </c>
       <c r="L33" s="1">
-        <v>14.1945</v>
+        <v>14.1951</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>11.9583</v>
@@ -12722,10 +12725,10 @@
         <v>328450.4608</v>
       </c>
       <c r="K34" s="1">
-        <v>387957.6092</v>
+        <v>387973.4457</v>
       </c>
       <c r="L34" s="1">
-        <v>14.0966</v>
+        <v>14.0972</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.2036</v>
@@ -12775,10 +12778,10 @@
         <v>345352.006</v>
       </c>
       <c r="K35" s="1">
-        <v>397957.6092</v>
+        <v>397973.4457</v>
       </c>
       <c r="L35" s="1">
-        <v>14.0344</v>
+        <v>14.035</v>
       </c>
       <c r="M35" s="1">
         <v>0.4</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.9136</v>
@@ -12828,10 +12831,10 @@
         <v>386192.6008</v>
       </c>
       <c r="K36" s="1">
-        <v>407957.6092</v>
+        <v>407973.4457</v>
       </c>
       <c r="L36" s="1">
-        <v>13.9838</v>
+        <v>13.9843</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.4338</v>
@@ -12881,10 +12884,10 @@
         <v>412066.6119</v>
       </c>
       <c r="K37" s="1">
-        <v>428165.7281</v>
+        <v>428181.5647</v>
       </c>
       <c r="L37" s="1">
-        <v>13.9307</v>
+        <v>13.9312</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.9657</v>
@@ -12934,10 +12937,10 @@
         <v>407323.122</v>
       </c>
       <c r="K38" s="1">
-        <v>438165.7281</v>
+        <v>438181.5647</v>
       </c>
       <c r="L38" s="1">
-        <v>13.9196</v>
+        <v>13.9201</v>
       </c>
       <c r="M38" s="1">
         <v>0.3</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.3568</v>
@@ -12987,10 +12990,10 @@
         <v>438368.7285</v>
       </c>
       <c r="K39" s="1">
-        <v>448165.7281</v>
+        <v>448181.5647</v>
       </c>
       <c r="L39" s="1">
-        <v>13.8975</v>
+        <v>13.8979</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.2487</v>
@@ -13040,10 +13043,10 @@
         <v>444666.074</v>
       </c>
       <c r="K40" s="1">
-        <v>466664.8736</v>
+        <v>466680.7102</v>
       </c>
       <c r="L40" s="1">
-        <v>13.8763</v>
+        <v>13.8768</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.3991</v>
@@ -13093,10 +13096,10 @@
         <v>459787.1205</v>
       </c>
       <c r="K41" s="1">
-        <v>476664.8736</v>
+        <v>476680.7102</v>
       </c>
       <c r="L41" s="1">
-        <v>13.8632</v>
+        <v>13.8636</v>
       </c>
       <c r="M41" s="1">
         <v>0.4</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.5985</v>
@@ -13146,10 +13149,10 @@
         <v>489115.8221</v>
       </c>
       <c r="K42" s="1">
-        <v>486664.8736</v>
+        <v>486680.7102</v>
       </c>
       <c r="L42" s="1">
-        <v>13.8539</v>
+        <v>13.8543</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.6955</v>
@@ -13199,10 +13202,10 @@
         <v>502585.8843</v>
       </c>
       <c r="K43" s="1">
-        <v>509042.951</v>
+        <v>509058.7875</v>
       </c>
       <c r="L43" s="1">
-        <v>13.8437</v>
+        <v>13.8441</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.3398</v>
@@ -13252,10 +13255,10 @@
         <v>499233.6536</v>
       </c>
       <c r="K44" s="1">
-        <v>519042.951</v>
+        <v>519058.7875</v>
       </c>
       <c r="L44" s="1">
-        <v>13.8414</v>
+        <v>13.8418</v>
       </c>
       <c r="M44" s="1">
         <v>0.3</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.8469</v>
@@ -13305,10 +13308,10 @@
         <v>500504.57</v>
       </c>
       <c r="K45" s="1">
-        <v>529042.951</v>
+        <v>529058.7875</v>
       </c>
       <c r="L45" s="1">
-        <v>13.8321</v>
+        <v>13.8325</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.129</v>
@@ -13358,10 +13361,10 @@
         <v>521630.9957</v>
       </c>
       <c r="K46" s="1">
-        <v>549167.7969</v>
+        <v>549183.6334</v>
       </c>
       <c r="L46" s="1">
-        <v>13.7944</v>
+        <v>13.7948</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.716</v>
@@ -13411,10 +13414,10 @@
         <v>514871.6597</v>
       </c>
       <c r="K47" s="1">
-        <v>559167.7969</v>
+        <v>559183.6334</v>
       </c>
       <c r="L47" s="1">
-        <v>13.7824</v>
+        <v>13.7828</v>
       </c>
       <c r="M47" s="1">
         <v>0.3</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.4613</v>
@@ -13464,10 +13467,10 @@
         <v>525273.2294</v>
       </c>
       <c r="K48" s="1">
-        <v>569167.7969</v>
+        <v>569183.6334</v>
       </c>
       <c r="L48" s="1">
-        <v>13.7627</v>
+        <v>13.763</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.6545</v>
@@ -13517,10 +13520,10 @@
         <v>543486.4661</v>
       </c>
       <c r="K49" s="1">
-        <v>590121.9950999999</v>
+        <v>590137.8317</v>
       </c>
       <c r="L49" s="1">
-        <v>13.7129</v>
+        <v>13.7133</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.2345</v>
@@ -13570,10 +13573,10 @@
         <v>535075.9779000001</v>
       </c>
       <c r="K50" s="1">
-        <v>600121.9950999999</v>
+        <v>600137.8317</v>
       </c>
       <c r="L50" s="1">
-        <v>13.6943</v>
+        <v>13.6947</v>
       </c>
       <c r="M50" s="1">
         <v>0.3</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.1636</v>
@@ -13623,10 +13626,10 @@
         <v>553712.2127</v>
       </c>
       <c r="K51" s="1">
-        <v>610121.9950999999</v>
+        <v>610137.8317</v>
       </c>
       <c r="L51" s="1">
-        <v>13.6681</v>
+        <v>13.6684</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>11.8145</v>
@@ -13676,10 +13679,10 @@
         <v>547448.8434</v>
       </c>
       <c r="K52" s="1">
-        <v>631954.1421000001</v>
+        <v>631969.9786</v>
       </c>
       <c r="L52" s="1">
-        <v>13.611</v>
+        <v>13.6113</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>11.2352</v>
@@ -13729,10 +13732,10 @@
         <v>530074.7727</v>
       </c>
       <c r="K53" s="1">
-        <v>641954.1421000001</v>
+        <v>641969.9786</v>
       </c>
       <c r="L53" s="1">
-        <v>13.5793</v>
+        <v>13.5796</v>
       </c>
       <c r="M53" s="1">
         <v>0.3</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>10.8241</v>
@@ -13782,10 +13785,10 @@
         <v>533037.7263</v>
       </c>
       <c r="K54" s="1">
-        <v>651954.1421000001</v>
+        <v>651969.9786</v>
       </c>
       <c r="L54" s="1">
-        <v>13.5365</v>
+        <v>13.5368</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>11.2543</v>
@@ -13835,10 +13838,10 @@
         <v>564528.9945</v>
       </c>
       <c r="K55" s="1">
-        <v>674718.2567</v>
+        <v>674734.0932999999</v>
       </c>
       <c r="L55" s="1">
-        <v>13.4241</v>
+        <v>13.4244</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.5675</v>
@@ -13888,10 +13891,10 @@
         <v>539431.8633</v>
       </c>
       <c r="K56" s="1">
-        <v>684718.2567</v>
+        <v>684734.0932999999</v>
       </c>
       <c r="L56" s="1">
-        <v>13.3869</v>
+        <v>13.3872</v>
       </c>
       <c r="M56" s="1">
         <v>0.3</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>9.967000000000001</v>
@@ -13941,10 +13944,10 @@
         <v>531982.7544</v>
       </c>
       <c r="K57" s="1">
-        <v>694718.2567</v>
+        <v>694734.0932999999</v>
       </c>
       <c r="L57" s="1">
-        <v>13.3362</v>
+        <v>13.3365</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.0064</v>
@@ -13994,10 +13997,10 @@
         <v>544028.5725</v>
       </c>
       <c r="K58" s="1">
-        <v>718528.3344000001</v>
+        <v>718544.1709</v>
       </c>
       <c r="L58" s="1">
-        <v>13.1896</v>
+        <v>13.1899</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.0129</v>
@@ -14047,10 +14050,10 @@
         <v>554349.1615</v>
       </c>
       <c r="K59" s="1">
-        <v>728528.3344000001</v>
+        <v>728544.1709</v>
       </c>
       <c r="L59" s="1">
-        <v>13.1327</v>
+        <v>13.133</v>
       </c>
       <c r="M59" s="1">
         <v>0.3</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.4583</v>
@@ -14100,10 +14103,10 @@
         <v>604388.6208</v>
       </c>
       <c r="K60" s="1">
-        <v>738528.3344000001</v>
+        <v>738544.1709</v>
       </c>
       <c r="L60" s="1">
-        <v>13.078</v>
+        <v>13.0783</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.3341</v>
@@ -14153,10 +14156,10 @@
         <v>606990.7821</v>
       </c>
       <c r="K61" s="1">
-        <v>763506.3962</v>
+        <v>763522.2327000001</v>
       </c>
       <c r="L61" s="1">
-        <v>12.9728</v>
+        <v>12.973</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>9.884600000000001</v>
@@ -14206,10 +14209,10 @@
         <v>590115.4089</v>
       </c>
       <c r="K62" s="1">
-        <v>773506.3962</v>
+        <v>773522.2327000001</v>
       </c>
       <c r="L62" s="1">
-        <v>12.9305</v>
+        <v>12.9308</v>
       </c>
       <c r="M62" s="1">
         <v>0.5</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5636</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-22</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.1788</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-21</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.5668</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.962</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-19</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.2659</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-18</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.4103</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-17</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.3976</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.9013</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-15</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.3527</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-14</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8804</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6268</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3636</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8711</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-10</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.1252</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.1934</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-8</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.1176</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-7</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.3311</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-6</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.3637</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-5</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6447</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-4</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.486</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.1958</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.4264</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>17.107</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.8894</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.4004</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3877</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6367</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.0061</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.835</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.4216</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.2404</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.382</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>11.9583</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.2036</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.9136</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.4338</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.9657</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.3568</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.2487</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.3991</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.5985</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.6955</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.3398</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.8469</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.129</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.716</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.4613</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.6545</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.2345</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.1636</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>11.8145</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>11.2352</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>10.8241</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>11.2543</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.5675</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>9.967000000000001</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.0064</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.0129</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.4583</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.3341</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>9.884600000000001</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -17597,13 +17600,13 @@
         <v>12.7433</v>
       </c>
       <c r="D3" s="1">
-        <v>12.6353</v>
+        <v>12.6384</v>
       </c>
       <c r="E3" s="1">
-        <v>12.8102</v>
+        <v>12.8113</v>
       </c>
       <c r="F3" s="1">
-        <v>12.9305</v>
+        <v>12.9308</v>
       </c>
       <c r="G3" s="1">
         <v>12.9979</v>
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>203196.9577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.7741</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.8101</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.7629</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.759</v>
       </c>
     </row>
   </sheetData>
